--- a/lota_xin/xls/boss.xlsx
+++ b/lota_xin/xls/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="8475"/>
+    <workbookView windowWidth="21495" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="bossTable(yes)" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "ID", "size" : 32}</t>
+          <t>{"type":"int32", "name" : "ID", "size" : 32}</t>
         </r>
       </text>
     </comment>
@@ -37,11 +36,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{ "type":"string", "name" : "Name", "size" : 128 }</t>
+          <t>{ "type":"string", "name" : "Name", "size" : 128 }</t>
         </r>
       </text>
     </comment>
@@ -50,11 +48,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "blood", "size" : 32}</t>
+          <t>{"type":"int32", "name" : "blood", "size" : 32}</t>
         </r>
       </text>
     </comment>
@@ -63,11 +60,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"string","name":"Src","size":64}</t>
+          <t>{"type":"string","name":"Src","size":64}</t>
         </r>
       </text>
     </comment>
@@ -3698,15 +3694,105 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3720,9 +3806,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3738,9 +3831,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3753,104 +3846,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3862,6 +3858,108 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3877,7 +3975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3889,31 +3993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3925,79 +4005,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4009,7 +4017,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4027,25 +4035,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4059,6 +4055,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4066,6 +4101,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4085,15 +4129,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4105,45 +4140,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4164,10 +4160,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4176,133 +4172,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4631,7 +4627,7 @@
   <dimension ref="A1:D602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/lota_xin/xls/boss.xlsx
+++ b/lota_xin/xls/boss.xlsx
@@ -28,7 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "ID", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"uint32", "name" : "ID"}</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "blood", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "blood"}</t>
         </r>
       </text>
     </comment>
@@ -3698,10 +3698,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3712,25 +3712,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3744,38 +3750,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3789,30 +3765,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3835,22 +3810,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3865,13 +3865,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3883,13 +3967,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3901,151 +4039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4056,6 +4056,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4085,15 +4142,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4108,54 +4156,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4164,10 +4164,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4176,133 +4176,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4631,7 +4631,7 @@
   <dimension ref="A1:D602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/lota_xin/xls/boss.xlsx
+++ b/lota_xin/xls/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="8475"/>
+    <workbookView windowWidth="21495" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="bossTable(yes)" sheetId="1" r:id="rId1"/>
@@ -3698,10 +3698,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3713,7 +3713,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3728,7 +3804,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3736,105 +3812,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3855,6 +3833,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -3865,7 +3865,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3877,91 +3997,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3973,79 +4033,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4059,11 +4059,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4093,41 +4099,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4138,6 +4109,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4156,6 +4145,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4164,10 +4164,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4176,133 +4176,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4631,7 +4631,7 @@
   <dimension ref="A1:D602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4666,7 +4666,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -4680,7 +4680,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -4694,7 +4694,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -4708,7 +4708,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -4722,7 +4722,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1">
-        <v>550</v>
+        <v>1700</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
@@ -4736,7 +4736,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -4750,7 +4750,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>850</v>
+        <v>2300</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
@@ -4764,7 +4764,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
@@ -4778,7 +4778,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>1150</v>
+        <v>2900</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
@@ -4792,7 +4792,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>1300</v>
+        <v>3200</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
@@ -4806,7 +4806,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>1450</v>
+        <v>3500</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
@@ -4820,7 +4820,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>28</v>
@@ -4834,7 +4834,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="1">
-        <v>1750</v>
+        <v>4100</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>30</v>
@@ -4848,7 +4848,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>1900</v>
+        <v>4400</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>32</v>
@@ -4862,7 +4862,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="1">
-        <v>2050</v>
+        <v>4700</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>34</v>
@@ -4876,7 +4876,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1">
-        <v>2200</v>
+        <v>5000</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>36</v>
@@ -4890,7 +4890,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="1">
-        <v>2350</v>
+        <v>5300</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>38</v>
@@ -4904,7 +4904,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="1">
-        <v>2500</v>
+        <v>5600</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>40</v>
@@ -4918,7 +4918,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="1">
-        <v>2650</v>
+        <v>5900</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>42</v>
@@ -4932,7 +4932,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="1">
-        <v>2800</v>
+        <v>6200</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>44</v>
@@ -4946,7 +4946,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="1">
-        <v>2950</v>
+        <v>6500</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>46</v>
@@ -4960,7 +4960,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="1">
-        <v>3100</v>
+        <v>6800</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>48</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="1">
-        <v>3250</v>
+        <v>7100</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>50</v>
@@ -4988,7 +4988,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="1">
-        <v>3400</v>
+        <v>7400</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>52</v>
@@ -5002,7 +5002,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="1">
-        <v>3550</v>
+        <v>7700</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>54</v>
@@ -5016,7 +5016,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="1">
-        <v>3700</v>
+        <v>8000</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>56</v>
@@ -5030,7 +5030,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="1">
-        <v>3850</v>
+        <v>8300</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>58</v>
@@ -5044,7 +5044,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="1">
-        <v>4000</v>
+        <v>8600</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>60</v>
@@ -5058,7 +5058,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="1">
-        <v>4150</v>
+        <v>8900</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>62</v>
@@ -5072,7 +5072,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="1">
-        <v>4300</v>
+        <v>9200</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>64</v>
@@ -5086,7 +5086,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="1">
-        <v>4450</v>
+        <v>9500</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>66</v>
@@ -5100,7 +5100,7 @@
         <v>67</v>
       </c>
       <c r="C34" s="1">
-        <v>4600</v>
+        <v>9800</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>68</v>
@@ -5114,7 +5114,7 @@
         <v>69</v>
       </c>
       <c r="C35" s="1">
-        <v>4750</v>
+        <v>10100</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>70</v>
@@ -5128,7 +5128,7 @@
         <v>71</v>
       </c>
       <c r="C36" s="1">
-        <v>4900</v>
+        <v>10400</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>72</v>
@@ -5142,7 +5142,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="1">
-        <v>5050</v>
+        <v>10700</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>74</v>
@@ -5156,7 +5156,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="1">
-        <v>5200</v>
+        <v>11000</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>76</v>
@@ -5170,7 +5170,7 @@
         <v>77</v>
       </c>
       <c r="C39" s="1">
-        <v>5350</v>
+        <v>11300</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>78</v>
@@ -5184,7 +5184,7 @@
         <v>79</v>
       </c>
       <c r="C40" s="1">
-        <v>5500</v>
+        <v>11600</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>80</v>
@@ -5198,7 +5198,7 @@
         <v>81</v>
       </c>
       <c r="C41" s="1">
-        <v>5650</v>
+        <v>11900</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>82</v>
@@ -5212,7 +5212,7 @@
         <v>83</v>
       </c>
       <c r="C42" s="1">
-        <v>5800</v>
+        <v>12200</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>84</v>
@@ -5226,7 +5226,7 @@
         <v>85</v>
       </c>
       <c r="C43" s="1">
-        <v>5950</v>
+        <v>12500</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>86</v>
@@ -5240,7 +5240,7 @@
         <v>87</v>
       </c>
       <c r="C44" s="1">
-        <v>6100</v>
+        <v>12800</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>88</v>
@@ -5254,7 +5254,7 @@
         <v>89</v>
       </c>
       <c r="C45" s="1">
-        <v>6250</v>
+        <v>13100</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>90</v>
@@ -5268,7 +5268,7 @@
         <v>91</v>
       </c>
       <c r="C46" s="1">
-        <v>6400</v>
+        <v>13400</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>92</v>
@@ -5282,7 +5282,7 @@
         <v>93</v>
       </c>
       <c r="C47" s="1">
-        <v>6550</v>
+        <v>13700</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>94</v>
@@ -5296,7 +5296,7 @@
         <v>95</v>
       </c>
       <c r="C48" s="1">
-        <v>6700</v>
+        <v>14000</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>96</v>
@@ -5310,7 +5310,7 @@
         <v>97</v>
       </c>
       <c r="C49" s="1">
-        <v>6850</v>
+        <v>14300</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>98</v>
@@ -5324,7 +5324,7 @@
         <v>99</v>
       </c>
       <c r="C50" s="1">
-        <v>7000</v>
+        <v>14600</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>100</v>
@@ -5338,7 +5338,7 @@
         <v>101</v>
       </c>
       <c r="C51" s="1">
-        <v>7150</v>
+        <v>14900</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>102</v>
@@ -5352,7 +5352,7 @@
         <v>103</v>
       </c>
       <c r="C52" s="1">
-        <v>7300</v>
+        <v>15200</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>104</v>
@@ -5366,7 +5366,7 @@
         <v>105</v>
       </c>
       <c r="C53" s="1">
-        <v>7450</v>
+        <v>15500</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>106</v>
@@ -5380,7 +5380,7 @@
         <v>107</v>
       </c>
       <c r="C54" s="1">
-        <v>7600</v>
+        <v>15800</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>108</v>
@@ -5394,7 +5394,7 @@
         <v>109</v>
       </c>
       <c r="C55" s="1">
-        <v>7750</v>
+        <v>16100</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>110</v>
@@ -5408,7 +5408,7 @@
         <v>111</v>
       </c>
       <c r="C56" s="1">
-        <v>7900</v>
+        <v>16400</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>112</v>
@@ -5422,7 +5422,7 @@
         <v>113</v>
       </c>
       <c r="C57" s="1">
-        <v>8050</v>
+        <v>16700</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>114</v>
@@ -5436,7 +5436,7 @@
         <v>115</v>
       </c>
       <c r="C58" s="1">
-        <v>8200</v>
+        <v>17000</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>116</v>
@@ -5450,7 +5450,7 @@
         <v>117</v>
       </c>
       <c r="C59" s="1">
-        <v>8350</v>
+        <v>17300</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>118</v>
@@ -5464,7 +5464,7 @@
         <v>119</v>
       </c>
       <c r="C60" s="1">
-        <v>8500</v>
+        <v>17600</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>120</v>
@@ -5478,7 +5478,7 @@
         <v>121</v>
       </c>
       <c r="C61" s="1">
-        <v>8650</v>
+        <v>17900</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>122</v>
@@ -5492,7 +5492,7 @@
         <v>123</v>
       </c>
       <c r="C62" s="1">
-        <v>8800</v>
+        <v>18200</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>124</v>
@@ -5506,7 +5506,7 @@
         <v>125</v>
       </c>
       <c r="C63" s="1">
-        <v>8950</v>
+        <v>18500</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>126</v>
@@ -5520,7 +5520,7 @@
         <v>127</v>
       </c>
       <c r="C64" s="1">
-        <v>9100</v>
+        <v>18800</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>128</v>
@@ -5534,7 +5534,7 @@
         <v>129</v>
       </c>
       <c r="C65" s="1">
-        <v>9250</v>
+        <v>19100</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>130</v>
@@ -5548,7 +5548,7 @@
         <v>131</v>
       </c>
       <c r="C66" s="1">
-        <v>9400</v>
+        <v>19400</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>132</v>
@@ -5562,7 +5562,7 @@
         <v>133</v>
       </c>
       <c r="C67" s="1">
-        <v>9550</v>
+        <v>19700</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>134</v>
@@ -5576,7 +5576,7 @@
         <v>135</v>
       </c>
       <c r="C68" s="1">
-        <v>9700</v>
+        <v>20000</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>136</v>
@@ -5590,7 +5590,7 @@
         <v>137</v>
       </c>
       <c r="C69" s="1">
-        <v>9850</v>
+        <v>20300</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>138</v>
@@ -5604,7 +5604,7 @@
         <v>139</v>
       </c>
       <c r="C70" s="1">
-        <v>10000</v>
+        <v>20600</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>140</v>
@@ -5618,7 +5618,7 @@
         <v>141</v>
       </c>
       <c r="C71" s="1">
-        <v>10150</v>
+        <v>20900</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>142</v>
@@ -5632,7 +5632,7 @@
         <v>143</v>
       </c>
       <c r="C72" s="1">
-        <v>10300</v>
+        <v>21200</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>144</v>
@@ -5646,7 +5646,7 @@
         <v>145</v>
       </c>
       <c r="C73" s="1">
-        <v>10450</v>
+        <v>21500</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>146</v>
@@ -5660,7 +5660,7 @@
         <v>147</v>
       </c>
       <c r="C74" s="1">
-        <v>10600</v>
+        <v>21800</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>148</v>
@@ -5674,7 +5674,7 @@
         <v>149</v>
       </c>
       <c r="C75" s="1">
-        <v>10750</v>
+        <v>22100</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>150</v>
@@ -5688,7 +5688,7 @@
         <v>151</v>
       </c>
       <c r="C76" s="1">
-        <v>10900</v>
+        <v>22400</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>152</v>
@@ -5702,7 +5702,7 @@
         <v>153</v>
       </c>
       <c r="C77" s="1">
-        <v>11050</v>
+        <v>22700</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>154</v>
@@ -5716,7 +5716,7 @@
         <v>155</v>
       </c>
       <c r="C78" s="1">
-        <v>11200</v>
+        <v>23000</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>156</v>
@@ -5730,7 +5730,7 @@
         <v>157</v>
       </c>
       <c r="C79" s="1">
-        <v>11350</v>
+        <v>23300</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>158</v>
@@ -5744,7 +5744,7 @@
         <v>159</v>
       </c>
       <c r="C80" s="1">
-        <v>11500</v>
+        <v>23600</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>160</v>
@@ -5758,7 +5758,7 @@
         <v>161</v>
       </c>
       <c r="C81" s="1">
-        <v>11650</v>
+        <v>23900</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>162</v>
@@ -5772,7 +5772,7 @@
         <v>163</v>
       </c>
       <c r="C82" s="1">
-        <v>11800</v>
+        <v>24200</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>164</v>
@@ -5786,7 +5786,7 @@
         <v>165</v>
       </c>
       <c r="C83" s="1">
-        <v>11950</v>
+        <v>24500</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>166</v>
@@ -5800,7 +5800,7 @@
         <v>167</v>
       </c>
       <c r="C84" s="1">
-        <v>12100</v>
+        <v>24800</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>168</v>
@@ -5814,7 +5814,7 @@
         <v>169</v>
       </c>
       <c r="C85" s="1">
-        <v>12250</v>
+        <v>25100</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>170</v>
@@ -5828,7 +5828,7 @@
         <v>171</v>
       </c>
       <c r="C86" s="1">
-        <v>12400</v>
+        <v>25400</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>172</v>
@@ -5842,7 +5842,7 @@
         <v>173</v>
       </c>
       <c r="C87" s="1">
-        <v>12550</v>
+        <v>25700</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>174</v>
@@ -5856,7 +5856,7 @@
         <v>175</v>
       </c>
       <c r="C88" s="1">
-        <v>12700</v>
+        <v>26000</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>176</v>
@@ -5870,7 +5870,7 @@
         <v>177</v>
       </c>
       <c r="C89" s="1">
-        <v>12850</v>
+        <v>26300</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>178</v>
@@ -5884,7 +5884,7 @@
         <v>179</v>
       </c>
       <c r="C90" s="1">
-        <v>13000</v>
+        <v>26600</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>180</v>
@@ -5898,7 +5898,7 @@
         <v>181</v>
       </c>
       <c r="C91" s="1">
-        <v>13150</v>
+        <v>26900</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>182</v>
@@ -5912,7 +5912,7 @@
         <v>183</v>
       </c>
       <c r="C92" s="1">
-        <v>13300</v>
+        <v>27200</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>184</v>
@@ -5926,7 +5926,7 @@
         <v>185</v>
       </c>
       <c r="C93" s="1">
-        <v>13450</v>
+        <v>27500</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>186</v>
@@ -5940,7 +5940,7 @@
         <v>187</v>
       </c>
       <c r="C94" s="1">
-        <v>13600</v>
+        <v>27800</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>188</v>
@@ -5954,7 +5954,7 @@
         <v>189</v>
       </c>
       <c r="C95" s="1">
-        <v>13750</v>
+        <v>28100</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>190</v>
@@ -5968,7 +5968,7 @@
         <v>191</v>
       </c>
       <c r="C96" s="1">
-        <v>13900</v>
+        <v>28400</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>192</v>
@@ -5982,7 +5982,7 @@
         <v>193</v>
       </c>
       <c r="C97" s="1">
-        <v>14050</v>
+        <v>28700</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>194</v>
@@ -5996,7 +5996,7 @@
         <v>195</v>
       </c>
       <c r="C98" s="1">
-        <v>14200</v>
+        <v>29000</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>196</v>
@@ -6010,7 +6010,7 @@
         <v>197</v>
       </c>
       <c r="C99" s="1">
-        <v>14350</v>
+        <v>29300</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>198</v>
@@ -6024,7 +6024,7 @@
         <v>199</v>
       </c>
       <c r="C100" s="1">
-        <v>14500</v>
+        <v>29600</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>200</v>
@@ -6038,7 +6038,7 @@
         <v>201</v>
       </c>
       <c r="C101" s="1">
-        <v>14650</v>
+        <v>29900</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>202</v>
@@ -6052,7 +6052,7 @@
         <v>203</v>
       </c>
       <c r="C102" s="1">
-        <v>14800</v>
+        <v>30200</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>204</v>
@@ -6066,7 +6066,7 @@
         <v>205</v>
       </c>
       <c r="C103" s="1">
-        <v>14950</v>
+        <v>30500</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>206</v>
@@ -6080,7 +6080,7 @@
         <v>207</v>
       </c>
       <c r="C104" s="1">
-        <v>15100</v>
+        <v>30800</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>208</v>
@@ -6094,7 +6094,7 @@
         <v>209</v>
       </c>
       <c r="C105" s="1">
-        <v>15250</v>
+        <v>31100</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>210</v>
@@ -6108,7 +6108,7 @@
         <v>211</v>
       </c>
       <c r="C106" s="1">
-        <v>15400</v>
+        <v>31400</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>212</v>
@@ -6122,7 +6122,7 @@
         <v>213</v>
       </c>
       <c r="C107" s="1">
-        <v>15550</v>
+        <v>31700</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>214</v>
@@ -6136,7 +6136,7 @@
         <v>215</v>
       </c>
       <c r="C108" s="1">
-        <v>15700</v>
+        <v>32000</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>216</v>
@@ -6150,7 +6150,7 @@
         <v>217</v>
       </c>
       <c r="C109" s="1">
-        <v>15850</v>
+        <v>32300</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>218</v>
@@ -6164,7 +6164,7 @@
         <v>219</v>
       </c>
       <c r="C110" s="1">
-        <v>16000</v>
+        <v>32600</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>220</v>
@@ -6178,7 +6178,7 @@
         <v>221</v>
       </c>
       <c r="C111" s="1">
-        <v>16150</v>
+        <v>32900</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>222</v>
@@ -6192,7 +6192,7 @@
         <v>223</v>
       </c>
       <c r="C112" s="1">
-        <v>16300</v>
+        <v>33200</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>224</v>
@@ -6206,7 +6206,7 @@
         <v>225</v>
       </c>
       <c r="C113" s="1">
-        <v>16450</v>
+        <v>33500</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>226</v>
@@ -6220,7 +6220,7 @@
         <v>227</v>
       </c>
       <c r="C114" s="1">
-        <v>16600</v>
+        <v>33800</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>228</v>
@@ -6234,7 +6234,7 @@
         <v>229</v>
       </c>
       <c r="C115" s="1">
-        <v>16750</v>
+        <v>34100</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>230</v>
@@ -6248,7 +6248,7 @@
         <v>231</v>
       </c>
       <c r="C116" s="1">
-        <v>16900</v>
+        <v>34400</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>232</v>
@@ -6262,7 +6262,7 @@
         <v>233</v>
       </c>
       <c r="C117" s="1">
-        <v>17050</v>
+        <v>34700</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>234</v>
@@ -6276,7 +6276,7 @@
         <v>235</v>
       </c>
       <c r="C118" s="1">
-        <v>17200</v>
+        <v>35000</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>236</v>
@@ -6290,7 +6290,7 @@
         <v>237</v>
       </c>
       <c r="C119" s="1">
-        <v>17350</v>
+        <v>35300</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>238</v>
@@ -6304,7 +6304,7 @@
         <v>239</v>
       </c>
       <c r="C120" s="1">
-        <v>17500</v>
+        <v>35600</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>240</v>
@@ -6318,7 +6318,7 @@
         <v>241</v>
       </c>
       <c r="C121" s="1">
-        <v>17650</v>
+        <v>35900</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>242</v>
@@ -6332,7 +6332,7 @@
         <v>243</v>
       </c>
       <c r="C122" s="1">
-        <v>17800</v>
+        <v>36200</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>244</v>

--- a/lota_xin/xls/boss.xlsx
+++ b/lota_xin/xls/boss.xlsx
@@ -3698,9 +3698,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -3713,14 +3713,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3740,11 +3740,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3766,16 +3765,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3787,9 +3779,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3804,6 +3811,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3812,7 +3827,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3821,29 +3844,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3865,6 +3865,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3872,18 +3878,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3901,7 +3895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3913,13 +3919,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3937,61 +4009,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4003,31 +4021,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4040,12 +4046,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4089,6 +4089,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4112,50 +4156,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4164,10 +4164,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4176,16 +4176,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4197,82 +4197,76 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4281,28 +4275,34 @@
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4631,7 +4631,7 @@
   <dimension ref="A1:D602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4666,7 +4666,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -4680,7 +4680,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -4694,7 +4694,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>1100</v>
+        <v>7000</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -4708,7 +4708,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>1400</v>
+        <v>8000</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -4722,7 +4722,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1">
-        <v>1700</v>
+        <v>9000</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
@@ -4736,7 +4736,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -4750,7 +4750,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>2300</v>
+        <v>11000</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
@@ -4764,7 +4764,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>2600</v>
+        <v>12000</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
@@ -4778,7 +4778,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>2900</v>
+        <v>13000</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
@@ -4792,7 +4792,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>3200</v>
+        <v>14000</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
@@ -4806,7 +4806,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
@@ -4820,7 +4820,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>3800</v>
+        <v>16000</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>28</v>
@@ -4834,7 +4834,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="1">
-        <v>4100</v>
+        <v>17000</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>30</v>
@@ -4848,7 +4848,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>4400</v>
+        <v>18000</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>32</v>
@@ -4862,7 +4862,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="1">
-        <v>4700</v>
+        <v>19000</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>34</v>
@@ -4876,7 +4876,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>36</v>
@@ -4890,7 +4890,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="1">
-        <v>5300</v>
+        <v>21000</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>38</v>
@@ -4904,7 +4904,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="1">
-        <v>5600</v>
+        <v>22000</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>40</v>
@@ -4918,7 +4918,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="1">
-        <v>5900</v>
+        <v>23000</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>42</v>
@@ -4932,7 +4932,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="1">
-        <v>6200</v>
+        <v>24000</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>44</v>
@@ -4946,7 +4946,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="1">
-        <v>6500</v>
+        <v>25000</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>46</v>
@@ -4960,7 +4960,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="1">
-        <v>6800</v>
+        <v>26000</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>48</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="1">
-        <v>7100</v>
+        <v>27000</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>50</v>
@@ -4988,7 +4988,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="1">
-        <v>7400</v>
+        <v>28000</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>52</v>
@@ -5002,7 +5002,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="1">
-        <v>7700</v>
+        <v>29000</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>54</v>
@@ -5016,7 +5016,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="1">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>56</v>
@@ -5030,7 +5030,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="1">
-        <v>8300</v>
+        <v>31000</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>58</v>
@@ -5044,7 +5044,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="1">
-        <v>8600</v>
+        <v>32000</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>60</v>
@@ -5058,7 +5058,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="1">
-        <v>8900</v>
+        <v>33000</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>62</v>
@@ -5072,7 +5072,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="1">
-        <v>9200</v>
+        <v>34000</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>64</v>
@@ -5086,7 +5086,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="1">
-        <v>9500</v>
+        <v>35000</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>66</v>
@@ -5100,7 +5100,7 @@
         <v>67</v>
       </c>
       <c r="C34" s="1">
-        <v>9800</v>
+        <v>36000</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>68</v>
@@ -5114,7 +5114,7 @@
         <v>69</v>
       </c>
       <c r="C35" s="1">
-        <v>10100</v>
+        <v>37000</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>70</v>
@@ -5128,7 +5128,7 @@
         <v>71</v>
       </c>
       <c r="C36" s="1">
-        <v>10400</v>
+        <v>38000</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>72</v>
@@ -5142,7 +5142,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="1">
-        <v>10700</v>
+        <v>39000</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>74</v>
@@ -5156,7 +5156,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="1">
-        <v>11000</v>
+        <v>40000</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>76</v>
@@ -5170,7 +5170,7 @@
         <v>77</v>
       </c>
       <c r="C39" s="1">
-        <v>11300</v>
+        <v>41000</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>78</v>
@@ -5184,7 +5184,7 @@
         <v>79</v>
       </c>
       <c r="C40" s="1">
-        <v>11600</v>
+        <v>42000</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>80</v>
@@ -5198,7 +5198,7 @@
         <v>81</v>
       </c>
       <c r="C41" s="1">
-        <v>11900</v>
+        <v>43000</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>82</v>
@@ -5212,7 +5212,7 @@
         <v>83</v>
       </c>
       <c r="C42" s="1">
-        <v>12200</v>
+        <v>44000</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>84</v>
@@ -5226,7 +5226,7 @@
         <v>85</v>
       </c>
       <c r="C43" s="1">
-        <v>12500</v>
+        <v>45000</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>86</v>
@@ -5240,7 +5240,7 @@
         <v>87</v>
       </c>
       <c r="C44" s="1">
-        <v>12800</v>
+        <v>46000</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>88</v>
@@ -5254,7 +5254,7 @@
         <v>89</v>
       </c>
       <c r="C45" s="1">
-        <v>13100</v>
+        <v>47000</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>90</v>
@@ -5268,7 +5268,7 @@
         <v>91</v>
       </c>
       <c r="C46" s="1">
-        <v>13400</v>
+        <v>48000</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>92</v>
@@ -5282,7 +5282,7 @@
         <v>93</v>
       </c>
       <c r="C47" s="1">
-        <v>13700</v>
+        <v>49000</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>94</v>
@@ -5296,7 +5296,7 @@
         <v>95</v>
       </c>
       <c r="C48" s="1">
-        <v>14000</v>
+        <v>50000</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>96</v>
@@ -5310,7 +5310,7 @@
         <v>97</v>
       </c>
       <c r="C49" s="1">
-        <v>14300</v>
+        <v>51000</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>98</v>
@@ -5324,7 +5324,7 @@
         <v>99</v>
       </c>
       <c r="C50" s="1">
-        <v>14600</v>
+        <v>52000</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>100</v>
@@ -5338,7 +5338,7 @@
         <v>101</v>
       </c>
       <c r="C51" s="1">
-        <v>14900</v>
+        <v>53000</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>102</v>
@@ -5352,7 +5352,7 @@
         <v>103</v>
       </c>
       <c r="C52" s="1">
-        <v>15200</v>
+        <v>54000</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>104</v>
@@ -5366,7 +5366,7 @@
         <v>105</v>
       </c>
       <c r="C53" s="1">
-        <v>15500</v>
+        <v>55000</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>106</v>
@@ -5380,7 +5380,7 @@
         <v>107</v>
       </c>
       <c r="C54" s="1">
-        <v>15800</v>
+        <v>56000</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>108</v>
@@ -5394,7 +5394,7 @@
         <v>109</v>
       </c>
       <c r="C55" s="1">
-        <v>16100</v>
+        <v>57000</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>110</v>
@@ -5408,7 +5408,7 @@
         <v>111</v>
       </c>
       <c r="C56" s="1">
-        <v>16400</v>
+        <v>58000</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>112</v>
@@ -5422,7 +5422,7 @@
         <v>113</v>
       </c>
       <c r="C57" s="1">
-        <v>16700</v>
+        <v>59000</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>114</v>
@@ -5436,7 +5436,7 @@
         <v>115</v>
       </c>
       <c r="C58" s="1">
-        <v>17000</v>
+        <v>60000</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>116</v>
@@ -5450,7 +5450,7 @@
         <v>117</v>
       </c>
       <c r="C59" s="1">
-        <v>17300</v>
+        <v>61000</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>118</v>
@@ -5464,7 +5464,7 @@
         <v>119</v>
       </c>
       <c r="C60" s="1">
-        <v>17600</v>
+        <v>62000</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>120</v>
@@ -5478,7 +5478,7 @@
         <v>121</v>
       </c>
       <c r="C61" s="1">
-        <v>17900</v>
+        <v>63000</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>122</v>
@@ -5492,7 +5492,7 @@
         <v>123</v>
       </c>
       <c r="C62" s="1">
-        <v>18200</v>
+        <v>64000</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>124</v>
@@ -5506,7 +5506,7 @@
         <v>125</v>
       </c>
       <c r="C63" s="1">
-        <v>18500</v>
+        <v>65000</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>126</v>
@@ -5520,7 +5520,7 @@
         <v>127</v>
       </c>
       <c r="C64" s="1">
-        <v>18800</v>
+        <v>66000</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>128</v>
@@ -5534,7 +5534,7 @@
         <v>129</v>
       </c>
       <c r="C65" s="1">
-        <v>19100</v>
+        <v>67000</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>130</v>
@@ -5548,7 +5548,7 @@
         <v>131</v>
       </c>
       <c r="C66" s="1">
-        <v>19400</v>
+        <v>68000</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>132</v>
@@ -5562,7 +5562,7 @@
         <v>133</v>
       </c>
       <c r="C67" s="1">
-        <v>19700</v>
+        <v>69000</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>134</v>
@@ -5576,7 +5576,7 @@
         <v>135</v>
       </c>
       <c r="C68" s="1">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>136</v>
@@ -5590,7 +5590,7 @@
         <v>137</v>
       </c>
       <c r="C69" s="1">
-        <v>20300</v>
+        <v>71000</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>138</v>
@@ -5604,7 +5604,7 @@
         <v>139</v>
       </c>
       <c r="C70" s="1">
-        <v>20600</v>
+        <v>72000</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>140</v>
@@ -5618,7 +5618,7 @@
         <v>141</v>
       </c>
       <c r="C71" s="1">
-        <v>20900</v>
+        <v>73000</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>142</v>
@@ -5632,7 +5632,7 @@
         <v>143</v>
       </c>
       <c r="C72" s="1">
-        <v>21200</v>
+        <v>74000</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>144</v>
@@ -5646,7 +5646,7 @@
         <v>145</v>
       </c>
       <c r="C73" s="1">
-        <v>21500</v>
+        <v>75000</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>146</v>
@@ -5660,7 +5660,7 @@
         <v>147</v>
       </c>
       <c r="C74" s="1">
-        <v>21800</v>
+        <v>76000</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>148</v>
@@ -5674,7 +5674,7 @@
         <v>149</v>
       </c>
       <c r="C75" s="1">
-        <v>22100</v>
+        <v>77000</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>150</v>
@@ -5688,7 +5688,7 @@
         <v>151</v>
       </c>
       <c r="C76" s="1">
-        <v>22400</v>
+        <v>78000</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>152</v>
@@ -5702,7 +5702,7 @@
         <v>153</v>
       </c>
       <c r="C77" s="1">
-        <v>22700</v>
+        <v>79000</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>154</v>
@@ -5716,7 +5716,7 @@
         <v>155</v>
       </c>
       <c r="C78" s="1">
-        <v>23000</v>
+        <v>80000</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>156</v>
@@ -5730,7 +5730,7 @@
         <v>157</v>
       </c>
       <c r="C79" s="1">
-        <v>23300</v>
+        <v>81000</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>158</v>
@@ -5744,7 +5744,7 @@
         <v>159</v>
       </c>
       <c r="C80" s="1">
-        <v>23600</v>
+        <v>82000</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>160</v>
@@ -5758,7 +5758,7 @@
         <v>161</v>
       </c>
       <c r="C81" s="1">
-        <v>23900</v>
+        <v>83000</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>162</v>
@@ -5772,7 +5772,7 @@
         <v>163</v>
       </c>
       <c r="C82" s="1">
-        <v>24200</v>
+        <v>84000</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>164</v>
@@ -5786,7 +5786,7 @@
         <v>165</v>
       </c>
       <c r="C83" s="1">
-        <v>24500</v>
+        <v>85000</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>166</v>
@@ -5800,7 +5800,7 @@
         <v>167</v>
       </c>
       <c r="C84" s="1">
-        <v>24800</v>
+        <v>86000</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>168</v>
@@ -5814,7 +5814,7 @@
         <v>169</v>
       </c>
       <c r="C85" s="1">
-        <v>25100</v>
+        <v>87000</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>170</v>
@@ -5828,7 +5828,7 @@
         <v>171</v>
       </c>
       <c r="C86" s="1">
-        <v>25400</v>
+        <v>88000</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>172</v>
@@ -5842,7 +5842,7 @@
         <v>173</v>
       </c>
       <c r="C87" s="1">
-        <v>25700</v>
+        <v>89000</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>174</v>
@@ -5856,7 +5856,7 @@
         <v>175</v>
       </c>
       <c r="C88" s="1">
-        <v>26000</v>
+        <v>90000</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>176</v>
@@ -5870,7 +5870,7 @@
         <v>177</v>
       </c>
       <c r="C89" s="1">
-        <v>26300</v>
+        <v>91000</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>178</v>
@@ -5884,7 +5884,7 @@
         <v>179</v>
       </c>
       <c r="C90" s="1">
-        <v>26600</v>
+        <v>92000</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>180</v>
@@ -5898,7 +5898,7 @@
         <v>181</v>
       </c>
       <c r="C91" s="1">
-        <v>26900</v>
+        <v>93000</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>182</v>
@@ -5912,7 +5912,7 @@
         <v>183</v>
       </c>
       <c r="C92" s="1">
-        <v>27200</v>
+        <v>94000</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>184</v>
@@ -5926,7 +5926,7 @@
         <v>185</v>
       </c>
       <c r="C93" s="1">
-        <v>27500</v>
+        <v>95000</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>186</v>
@@ -5940,7 +5940,7 @@
         <v>187</v>
       </c>
       <c r="C94" s="1">
-        <v>27800</v>
+        <v>96000</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>188</v>
@@ -5954,7 +5954,7 @@
         <v>189</v>
       </c>
       <c r="C95" s="1">
-        <v>28100</v>
+        <v>97000</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>190</v>
@@ -5968,7 +5968,7 @@
         <v>191</v>
       </c>
       <c r="C96" s="1">
-        <v>28400</v>
+        <v>98000</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>192</v>
@@ -5982,7 +5982,7 @@
         <v>193</v>
       </c>
       <c r="C97" s="1">
-        <v>28700</v>
+        <v>99000</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>194</v>
@@ -5996,7 +5996,7 @@
         <v>195</v>
       </c>
       <c r="C98" s="1">
-        <v>29000</v>
+        <v>100000</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>196</v>
@@ -6010,7 +6010,7 @@
         <v>197</v>
       </c>
       <c r="C99" s="1">
-        <v>29300</v>
+        <v>101000</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>198</v>
@@ -6024,7 +6024,7 @@
         <v>199</v>
       </c>
       <c r="C100" s="1">
-        <v>29600</v>
+        <v>102000</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>200</v>
@@ -6038,7 +6038,7 @@
         <v>201</v>
       </c>
       <c r="C101" s="1">
-        <v>29900</v>
+        <v>103000</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>202</v>
@@ -6052,7 +6052,7 @@
         <v>203</v>
       </c>
       <c r="C102" s="1">
-        <v>30200</v>
+        <v>104000</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>204</v>
@@ -6066,7 +6066,7 @@
         <v>205</v>
       </c>
       <c r="C103" s="1">
-        <v>30500</v>
+        <v>105000</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>206</v>
@@ -6080,7 +6080,7 @@
         <v>207</v>
       </c>
       <c r="C104" s="1">
-        <v>30800</v>
+        <v>106000</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>208</v>
@@ -6094,7 +6094,7 @@
         <v>209</v>
       </c>
       <c r="C105" s="1">
-        <v>31100</v>
+        <v>107000</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>210</v>
@@ -6108,7 +6108,7 @@
         <v>211</v>
       </c>
       <c r="C106" s="1">
-        <v>31400</v>
+        <v>108000</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>212</v>
